--- a/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 5 (43, 19, 11, 17, 31)/Ableson 8 (9, 23, 10, 4, 42)/NCDE_32nodes_Uniform0.05Virtual_Nelson(43, 19, 11, 17, 31)_Ableson(9, 23, 10, 4, 42)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 5 (43, 19, 11, 17, 31)/Ableson 8 (9, 23, 10, 4, 42)/NCDE_32nodes_Uniform0.05Virtual_Nelson(43, 19, 11, 17, 31)_Ableson(9, 23, 10, 4, 42)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
@@ -456,10 +456,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.654808343553294</v>
+        <v>0.6541118602811586</v>
       </c>
       <c r="E2">
-        <v>0.654808343553294</v>
+        <v>0.6541118602811586</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.03321883788199153</v>
+        <v>0.03323614730896127</v>
       </c>
       <c r="E3">
-        <v>0.03321883788199153</v>
+        <v>0.03323614730896127</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.9726922827402239</v>
+        <v>0.9730133167169314</v>
       </c>
       <c r="E4">
-        <v>0.9726922827402239</v>
+        <v>0.9730133167169314</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0.09859978233595737</v>
+        <v>0.09884951202197124</v>
       </c>
       <c r="E5">
-        <v>0.09859978233595737</v>
+        <v>0.09884951202197124</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0.3058999828456387</v>
+        <v>0.3067804907064885</v>
       </c>
       <c r="E6">
-        <v>0.3058999828456387</v>
+        <v>0.3067804907064885</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.9820291798568068</v>
+        <v>0.9999892282737609</v>
       </c>
       <c r="E7">
-        <v>0.01797082014319318</v>
+        <v>1.07717262390894E-05</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,10 +540,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.9816521245913513</v>
+        <v>0.9735798597716366</v>
       </c>
       <c r="E8">
-        <v>0.01834787540864868</v>
+        <v>0.02642014022836336</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -554,10 +554,10 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.9820082695254828</v>
+        <v>0.9778197031698652</v>
       </c>
       <c r="E9">
-        <v>0.01799173047451719</v>
+        <v>0.02218029683013478</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -568,10 +568,10 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>0.9813223612086239</v>
+        <v>0.998930254650726</v>
       </c>
       <c r="E10">
-        <v>0.01867763879137607</v>
+        <v>0.001069745349273954</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -582,13 +582,13 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0.9823821952630615</v>
+        <v>0.9763926654641428</v>
       </c>
       <c r="E11">
-        <v>0.01761780473693852</v>
+        <v>0.02360733453585717</v>
       </c>
       <c r="F11">
-        <v>0.5258406400680542</v>
+        <v>0.5252521634101868</v>
       </c>
       <c r="G11">
         <v>0.8</v>
@@ -605,10 +605,10 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.6817948877977512</v>
+        <v>0.6817748442996882</v>
       </c>
       <c r="E12">
-        <v>0.6817948877977512</v>
+        <v>0.6817748442996882</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -619,10 +619,10 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <v>0.00109023345761846</v>
+        <v>0.00109120342154986</v>
       </c>
       <c r="E13">
-        <v>0.00109023345761846</v>
+        <v>0.00109120342154986</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.9646544646816223</v>
+        <v>0.9646799378456709</v>
       </c>
       <c r="E14">
-        <v>0.9646544646816223</v>
+        <v>0.9646799378456709</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -647,10 +647,10 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>0.0001425314339706222</v>
+        <v>0.0001425754764067132</v>
       </c>
       <c r="E15">
-        <v>0.0001425314339706222</v>
+        <v>0.0001425754764067132</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -661,10 +661,10 @@
         <v>1</v>
       </c>
       <c r="D16">
-        <v>0.1363743604627792</v>
+        <v>0.1364974265987901</v>
       </c>
       <c r="E16">
-        <v>0.1363743604627792</v>
+        <v>0.1364974265987901</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -675,10 +675,10 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <v>0.9939600319681575</v>
+        <v>0.9999855817346953</v>
       </c>
       <c r="E17">
-        <v>0.00603996803184248</v>
+        <v>1.441826530468315E-05</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -689,10 +689,10 @@
         <v>1</v>
       </c>
       <c r="D18">
-        <v>0.9938379008112764</v>
+        <v>0.9910876821438145</v>
       </c>
       <c r="E18">
-        <v>0.006162099188723569</v>
+        <v>0.008912317856185514</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -703,10 +703,10 @@
         <v>1</v>
       </c>
       <c r="D19">
-        <v>0.9941346271611161</v>
+        <v>0.9868300976855224</v>
       </c>
       <c r="E19">
-        <v>0.005865372838883887</v>
+        <v>0.01316990231447757</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -717,10 +717,10 @@
         <v>1</v>
       </c>
       <c r="D20">
-        <v>0.9936693941139066</v>
+        <v>0.9993609739937203</v>
       </c>
       <c r="E20">
-        <v>0.006330605886093355</v>
+        <v>0.0006390260062797415</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -731,13 +731,13 @@
         <v>1</v>
       </c>
       <c r="D21">
-        <v>0.9942864918816767</v>
+        <v>0.9991173853432029</v>
       </c>
       <c r="E21">
-        <v>0.005713508118323274</v>
+        <v>0.000882614656797065</v>
       </c>
       <c r="F21">
-        <v>0.4665694832801819</v>
+        <v>0.466003954410553</v>
       </c>
       <c r="G21">
         <v>0.8</v>
